--- a/src/assets/data.xlsx
+++ b/src/assets/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petch\OneDrive\Desktop\sgn\sgntest\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petch\OneDrive\Desktop\sgn\sgntest3\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D033A-67F7-485E-B6F3-8BC337D7432E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FD9362-2D73-4504-9F1F-B1A012BC0DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D04E418-B66F-422B-8B37-8CA8C9E5B8A6}"/>
   </bookViews>
@@ -510,19 +510,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C125F6C-D99F-47EA-A4AA-21FFF724BAE6}">
-  <dimension ref="A1:BJ12"/>
+  <dimension ref="A1:BX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="24.375" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="68" max="68" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.375" customWidth="1"/>
+    <col min="70" max="72" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.125" customWidth="1"/>
+    <col min="74" max="74" width="16.125" customWidth="1"/>
+    <col min="75" max="75" width="18" customWidth="1"/>
+    <col min="76" max="76" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -536,181 +559,223 @@
         <v>5</v>
       </c>
       <c r="E1">
+        <v>1950</v>
+      </c>
+      <c r="F1">
+        <v>1951</v>
+      </c>
+      <c r="G1">
+        <v>1952</v>
+      </c>
+      <c r="H1">
+        <v>1953</v>
+      </c>
+      <c r="I1">
+        <v>1954</v>
+      </c>
+      <c r="J1">
+        <v>1955</v>
+      </c>
+      <c r="K1">
+        <v>1956</v>
+      </c>
+      <c r="L1">
+        <v>1957</v>
+      </c>
+      <c r="M1">
+        <v>1958</v>
+      </c>
+      <c r="N1">
+        <v>1959</v>
+      </c>
+      <c r="O1">
         <v>1960</v>
       </c>
-      <c r="F1">
+      <c r="P1">
         <v>1961</v>
       </c>
-      <c r="G1">
+      <c r="Q1">
         <v>1962</v>
       </c>
-      <c r="H1">
+      <c r="R1">
         <v>1963</v>
       </c>
-      <c r="I1">
+      <c r="S1">
         <v>1964</v>
       </c>
-      <c r="J1">
+      <c r="T1">
         <v>1965</v>
       </c>
-      <c r="K1">
+      <c r="U1">
         <v>1966</v>
       </c>
-      <c r="L1">
+      <c r="V1">
         <v>1967</v>
       </c>
-      <c r="M1">
+      <c r="W1">
         <v>1968</v>
       </c>
-      <c r="N1">
+      <c r="X1">
         <v>1969</v>
       </c>
-      <c r="O1">
+      <c r="Y1">
         <v>1970</v>
       </c>
-      <c r="P1">
+      <c r="Z1">
         <v>1971</v>
       </c>
-      <c r="Q1">
+      <c r="AA1">
         <v>1972</v>
       </c>
-      <c r="R1">
+      <c r="AB1">
         <v>1973</v>
       </c>
-      <c r="S1">
+      <c r="AC1">
         <v>1974</v>
       </c>
-      <c r="T1">
+      <c r="AD1">
         <v>1975</v>
       </c>
-      <c r="U1">
+      <c r="AE1">
         <v>1976</v>
       </c>
-      <c r="V1">
+      <c r="AF1">
         <v>1977</v>
       </c>
-      <c r="W1">
+      <c r="AG1">
         <v>1978</v>
       </c>
-      <c r="X1">
+      <c r="AH1">
         <v>1979</v>
       </c>
-      <c r="Y1">
+      <c r="AI1">
         <v>1980</v>
       </c>
-      <c r="Z1">
+      <c r="AJ1">
         <v>1981</v>
       </c>
-      <c r="AA1">
+      <c r="AK1">
         <v>1982</v>
       </c>
-      <c r="AB1">
+      <c r="AL1">
         <v>1983</v>
       </c>
-      <c r="AC1">
+      <c r="AM1">
         <v>1984</v>
       </c>
-      <c r="AD1">
+      <c r="AN1">
         <v>1985</v>
       </c>
-      <c r="AE1">
+      <c r="AO1">
         <v>1986</v>
       </c>
-      <c r="AF1">
+      <c r="AP1">
         <v>1987</v>
       </c>
-      <c r="AG1">
+      <c r="AQ1">
         <v>1988</v>
       </c>
-      <c r="AH1">
+      <c r="AR1">
         <v>1989</v>
       </c>
-      <c r="AI1">
+      <c r="AS1">
         <v>1990</v>
       </c>
-      <c r="AJ1">
+      <c r="AT1">
         <v>1991</v>
       </c>
-      <c r="AK1">
+      <c r="AU1">
         <v>1992</v>
       </c>
-      <c r="AL1">
+      <c r="AV1">
         <v>1993</v>
       </c>
-      <c r="AM1">
+      <c r="AW1">
         <v>1994</v>
       </c>
-      <c r="AN1">
+      <c r="AX1">
         <v>1995</v>
       </c>
-      <c r="AO1">
+      <c r="AY1">
         <v>1996</v>
       </c>
-      <c r="AP1">
+      <c r="AZ1">
         <v>1997</v>
       </c>
-      <c r="AQ1">
+      <c r="BA1">
         <v>1998</v>
       </c>
-      <c r="AR1">
+      <c r="BB1">
         <v>1999</v>
       </c>
-      <c r="AS1">
+      <c r="BC1">
         <v>2000</v>
       </c>
-      <c r="AT1">
+      <c r="BD1">
         <v>2001</v>
       </c>
-      <c r="AU1">
+      <c r="BE1">
         <v>2002</v>
       </c>
-      <c r="AV1">
+      <c r="BF1">
         <v>2003</v>
       </c>
-      <c r="AW1">
+      <c r="BG1">
         <v>2004</v>
       </c>
-      <c r="AX1">
+      <c r="BH1">
         <v>2005</v>
       </c>
-      <c r="AY1">
+      <c r="BI1">
         <v>2006</v>
       </c>
-      <c r="AZ1">
+      <c r="BJ1">
         <v>2007</v>
       </c>
-      <c r="BA1">
+      <c r="BK1">
         <v>2008</v>
       </c>
-      <c r="BB1">
+      <c r="BL1">
         <v>2009</v>
       </c>
-      <c r="BC1">
+      <c r="BM1">
         <v>2010</v>
       </c>
-      <c r="BD1">
+      <c r="BN1">
         <v>2011</v>
       </c>
-      <c r="BE1">
+      <c r="BO1">
         <v>2012</v>
       </c>
-      <c r="BF1">
+      <c r="BP1">
         <v>2013</v>
       </c>
-      <c r="BG1">
+      <c r="BQ1">
         <v>2014</v>
       </c>
-      <c r="BH1">
+      <c r="BR1">
         <v>2015</v>
       </c>
-      <c r="BI1">
+      <c r="BS1">
         <v>2016</v>
       </c>
-      <c r="BJ1">
+      <c r="BT1">
         <v>2017</v>
       </c>
+      <c r="BU1">
+        <v>2018</v>
+      </c>
+      <c r="BV1">
+        <v>2019</v>
+      </c>
+      <c r="BW1">
+        <v>2020</v>
+      </c>
+      <c r="BX1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -724,181 +789,223 @@
         <v>10</v>
       </c>
       <c r="E2" s="2">
+        <v>14946986</v>
+      </c>
+      <c r="F2" s="2">
+        <v>16776654.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>18606323</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20435991.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>22265660</v>
+      </c>
+      <c r="J2" s="2">
+        <v>24095328.5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>25924997</v>
+      </c>
+      <c r="L2" s="2">
+        <v>27754665.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>29584334</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31414002.5</v>
+      </c>
+      <c r="O2" s="2">
         <v>33315843</v>
       </c>
-      <c r="F2" s="2">
+      <c r="P2" s="2">
         <v>35036038</v>
       </c>
-      <c r="G2" s="2">
+      <c r="Q2" s="2">
         <v>36830967</v>
       </c>
-      <c r="H2" s="2">
+      <c r="R2" s="2">
         <v>38699975</v>
       </c>
-      <c r="I2" s="2">
+      <c r="S2" s="2">
         <v>40632217</v>
       </c>
-      <c r="J2" s="2">
+      <c r="T2" s="2">
         <v>42614884</v>
       </c>
-      <c r="K2" s="2">
+      <c r="U2" s="2">
         <v>44649390</v>
       </c>
-      <c r="L2" s="2">
+      <c r="V2" s="2">
         <v>46735257</v>
       </c>
-      <c r="M2" s="2">
+      <c r="W2" s="2">
         <v>48873647</v>
       </c>
-      <c r="N2" s="2">
+      <c r="X2" s="2">
         <v>51058529</v>
       </c>
-      <c r="O2" s="2">
+      <c r="Y2" s="2">
         <v>53296257</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Z2" s="2">
         <v>55601915</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="AA2" s="2">
         <v>57962113</v>
       </c>
-      <c r="R2" s="2">
+      <c r="AB2" s="2">
         <v>60375977</v>
       </c>
-      <c r="S2" s="2">
+      <c r="AC2" s="2">
         <v>62858800</v>
       </c>
-      <c r="T2" s="2">
+      <c r="AD2" s="2">
         <v>65416319</v>
       </c>
-      <c r="U2" s="2">
+      <c r="AE2" s="2">
         <v>68051067</v>
       </c>
-      <c r="V2" s="2">
+      <c r="AF2" s="2">
         <v>70755737</v>
       </c>
-      <c r="W2" s="2">
+      <c r="AG2" s="2">
         <v>73536292</v>
       </c>
-      <c r="X2" s="2">
+      <c r="AH2" s="2">
         <v>76391349</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AI2" s="2">
         <v>79320872</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AJ2" s="2">
         <v>82319314</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AK2" s="2">
         <v>85387337</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AL2" s="2">
         <v>88504411</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AM2" s="2">
         <v>91645752</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AN2" s="2">
         <v>94786163</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AO2" s="2">
         <v>97923276</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AP2" s="2">
         <v>101051513</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AQ2" s="2">
         <v>104173596</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AR2" s="2">
         <v>107289048</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AS2" s="2">
         <v>110404093</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AT2" s="2">
         <v>113511305</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AU2" s="2">
         <v>116609474</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AV2" s="2">
         <v>119705248</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AW2" s="2">
         <v>122818031</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AX2" s="2">
         <v>125958401</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AY2" s="2">
         <v>129130417</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AZ2" s="2">
         <v>132441101</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="BA2" s="2">
         <v>135763838</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="BB2" s="2">
         <v>139064280</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="BC2" s="2">
         <v>142319498</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="BD2" s="2">
         <v>144961004</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="BE2" s="2">
         <v>147507656</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="BF2" s="2">
         <v>150005801</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="BG2" s="2">
         <v>152448023</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BH2" s="2">
         <v>154831127</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="BI2" s="2">
         <v>157150590</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="BJ2" s="2">
         <v>159407908</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BK2" s="2">
         <v>161618007</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BL2" s="2">
         <v>163798391</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BM2" s="2">
         <v>165968133</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BN2" s="2">
         <v>168150531</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BO2" s="2">
         <v>170322404</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BP2" s="2">
         <v>172470371</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BQ2" s="2">
         <v>174585892</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BR2" s="2">
         <v>176653700</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BS2" s="2">
         <v>178668678</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BT2" s="2">
         <v>180634620</v>
       </c>
+      <c r="BU2" s="2">
+        <v>182634620</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>184834620</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>185894620</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>187894620</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -912,181 +1019,223 @@
         <v>11</v>
       </c>
       <c r="E3" s="2">
+        <v>8423222.5999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8815891.9000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9208561.1999999993</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9601230.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9993899.8000000007</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10386569.1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10779238.4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11171907.699999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11564577</v>
+      </c>
+      <c r="N3" s="2">
+        <v>11957246.300000001</v>
+      </c>
+      <c r="O3" s="2">
         <v>12368141</v>
       </c>
-      <c r="F3" s="2">
+      <c r="P3" s="2">
         <v>12729040</v>
       </c>
-      <c r="G3" s="2">
+      <c r="Q3" s="2">
         <v>13121753</v>
       </c>
-      <c r="H3" s="2">
+      <c r="R3" s="2">
         <v>13522659</v>
       </c>
-      <c r="I3" s="2">
+      <c r="S3" s="2">
         <v>13934678</v>
       </c>
-      <c r="J3" s="2">
+      <c r="T3" s="2">
         <v>14343688</v>
       </c>
-      <c r="K3" s="2">
+      <c r="U3" s="2">
         <v>14763748</v>
       </c>
-      <c r="L3" s="2">
+      <c r="V3" s="2">
         <v>15136519</v>
       </c>
-      <c r="M3" s="2">
+      <c r="W3" s="2">
         <v>15487885</v>
       </c>
-      <c r="N3" s="2">
+      <c r="X3" s="2">
         <v>15804855</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Y3" s="2">
         <v>16132459</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Z3" s="2">
         <v>16470088</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="AA3" s="2">
         <v>16708781</v>
       </c>
-      <c r="R3" s="2">
+      <c r="AB3" s="2">
         <v>16967420</v>
       </c>
-      <c r="S3" s="2">
+      <c r="AC3" s="2">
         <v>17247044</v>
       </c>
-      <c r="T3" s="2">
+      <c r="AD3" s="2">
         <v>17548557</v>
       </c>
-      <c r="U3" s="2">
+      <c r="AE3" s="2">
         <v>17756796</v>
       </c>
-      <c r="V3" s="2">
+      <c r="AF3" s="2">
         <v>17976212</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AG3" s="2">
         <v>18167130</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AH3" s="2">
         <v>18358996</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AI3" s="2">
         <v>18607802</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AJ3" s="2">
         <v>18852288</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AK3" s="2">
         <v>19121765</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AL3" s="2">
         <v>19355470</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AM3" s="2">
         <v>19583639</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AN3" s="2">
         <v>19807755</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AO3" s="2">
         <v>20046584</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AP3" s="2">
         <v>20316591</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AQ3" s="2">
         <v>20585971</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AR3" s="2">
         <v>20961910</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AS3" s="2">
         <v>21282904</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AT3" s="2">
         <v>21585143</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AU3" s="2">
         <v>21927863</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AV3" s="2">
         <v>22245552</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AW3" s="2">
         <v>22536691</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AX3" s="2">
         <v>22800720</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AY3" s="2">
         <v>23129543</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AZ3" s="2">
         <v>23491972</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="BA3" s="2">
         <v>23812357</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="BB3" s="2">
         <v>24125782</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="BC3" s="2">
         <v>24455142</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="BD3" s="2">
         <v>24806464</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="BE3" s="2">
         <v>25054475</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="BF3" s="2">
         <v>25330347</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="BG3" s="2">
         <v>25610398</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BH3" s="2">
         <v>25889021</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="BI3" s="2">
         <v>26125779</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="BJ3" s="2">
         <v>26440579</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BK3" s="2">
         <v>26788779</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BL3" s="2">
         <v>27157761</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BM3" s="2">
         <v>27522849</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BN3" s="2">
         <v>27850621</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BO3" s="2">
         <v>28195550</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BP3" s="2">
         <v>28535991</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BQ3" s="2">
         <v>28861099</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BR3" s="2">
         <v>29117142</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BS3" s="2">
         <v>29483123</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BT3" s="2">
         <v>29862026</v>
       </c>
+      <c r="BU3" s="2">
+        <v>30232314.333333299</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>30604756.333333299</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>30977198.333333299</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>31349640.333333299</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1100,181 +1249,223 @@
         <v>13</v>
       </c>
       <c r="E4" s="2">
+        <v>56113549.399999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>61138304.200000003</v>
+      </c>
+      <c r="G4" s="2">
+        <v>66163059</v>
+      </c>
+      <c r="H4" s="2">
+        <v>71187813.799999997</v>
+      </c>
+      <c r="I4" s="2">
+        <v>76212568.599999994</v>
+      </c>
+      <c r="J4" s="2">
+        <v>81237323.400000006</v>
+      </c>
+      <c r="K4" s="2">
+        <v>86262078.200000003</v>
+      </c>
+      <c r="L4" s="2">
+        <v>91286833</v>
+      </c>
+      <c r="M4" s="2">
+        <v>96311587.799999997</v>
+      </c>
+      <c r="N4" s="2">
+        <v>101336342.59999999</v>
+      </c>
+      <c r="O4" s="2">
         <v>108085352</v>
       </c>
-      <c r="F4" s="2">
+      <c r="P4" s="2">
         <v>110327936</v>
       </c>
-      <c r="G4" s="2">
+      <c r="Q4" s="2">
         <v>114685540</v>
       </c>
-      <c r="H4" s="2">
+      <c r="R4" s="2">
         <v>121162226</v>
       </c>
-      <c r="I4" s="2">
+      <c r="S4" s="2">
         <v>127791981</v>
       </c>
-      <c r="J4" s="2">
+      <c r="T4" s="2">
         <v>129348359</v>
       </c>
-      <c r="K4" s="2">
+      <c r="U4" s="2">
         <v>131746910</v>
       </c>
-      <c r="L4" s="2">
+      <c r="V4" s="2">
         <v>134196718</v>
       </c>
-      <c r="M4" s="2">
+      <c r="W4" s="2">
         <v>136747486</v>
       </c>
-      <c r="N4" s="2">
+      <c r="X4" s="2">
         <v>139527262</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Y4" s="2">
         <v>142386810</v>
       </c>
-      <c r="P4" s="2">
+      <c r="Z4" s="2">
         <v>145443877</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="AA4" s="2">
         <v>148131235</v>
       </c>
-      <c r="R4" s="2">
+      <c r="AB4" s="2">
         <v>151552570</v>
       </c>
-      <c r="S4" s="2">
+      <c r="AC4" s="2">
         <v>155688522</v>
       </c>
-      <c r="T4" s="2">
+      <c r="AD4" s="2">
         <v>159452730</v>
       </c>
-      <c r="U4" s="2">
+      <c r="AE4" s="2">
         <v>162497601</v>
       </c>
-      <c r="V4" s="2">
+      <c r="AF4" s="2">
         <v>165293316</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AG4" s="2">
         <v>171153535</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AH4" s="2">
         <v>180399661</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AI4" s="2">
         <v>189947471</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AJ4" s="2">
         <v>199949784</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AK4" s="2">
         <v>210823843</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AL4" s="2">
         <v>220472140</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AM4" s="2">
         <v>230206255</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AN4" s="2">
         <v>240414890</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AO4" s="2">
         <v>251325056</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AP4" s="2">
         <v>262976051</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AQ4" s="2">
         <v>275121076</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AR4" s="2">
         <v>287504237</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AS4" s="2">
         <v>300165618</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AT4" s="2">
         <v>314301034</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AU4" s="2">
         <v>328521540</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AV4" s="2">
         <v>342961393</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AW4" s="2">
         <v>357836540</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AX4" s="2">
         <v>373035157</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AY4" s="2">
         <v>388593258</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AZ4" s="2">
         <v>404485562</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="BA4" s="2">
         <v>420606126</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="BB4" s="2">
         <v>436766058</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="BC4" s="2">
         <v>452999147</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="BD4" s="2">
         <v>471767321</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="BE4" s="2">
         <v>491993700</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="BF4" s="2">
         <v>512473984</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BG4" s="2">
         <v>533257098</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BH4" s="2">
         <v>554367818</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BI4" s="2">
         <v>575118254</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BJ4" s="2">
         <v>595670841</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BK4" s="2">
         <v>616481190</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BL4" s="2">
         <v>637407288</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BM4" s="2">
         <v>658498663</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BN4" s="2">
         <v>678933504</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BO4" s="2">
         <v>699187267</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BP4" s="2">
         <v>719587859</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BQ4" s="2">
         <v>740239259</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BR4" s="2">
         <v>761027100</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BS4" s="2">
         <v>782199374</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BT4" s="2">
         <v>803554542</v>
       </c>
+      <c r="BU4" s="2">
+        <v>824289671.10000002</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>845279019.20000005</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>866268367.29999995</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>887257715.39999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1288,181 +1479,223 @@
         <v>15</v>
       </c>
       <c r="E5" s="2">
+        <v>6212061.5999999996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6612570.9000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7013080.2000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7413589.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7814098.7999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8214608.0999999996</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8615117.4000000004</v>
+      </c>
+      <c r="L5" s="2">
+        <v>9015626.6999999993</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9416136</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9816645.3000000007</v>
+      </c>
+      <c r="O5" s="2">
         <v>10221967</v>
       </c>
-      <c r="F5" s="2">
+      <c r="P5" s="2">
         <v>10618456</v>
       </c>
-      <c r="G5" s="2">
+      <c r="Q5" s="2">
         <v>11010225</v>
       </c>
-      <c r="H5" s="2">
+      <c r="R5" s="2">
         <v>11412953</v>
       </c>
-      <c r="I5" s="2">
+      <c r="S5" s="2">
         <v>11827265</v>
       </c>
-      <c r="J5" s="2">
+      <c r="T5" s="2">
         <v>12253435</v>
       </c>
-      <c r="K5" s="2">
+      <c r="U5" s="2">
         <v>12692359</v>
       </c>
-      <c r="L5" s="2">
+      <c r="V5" s="2">
         <v>13143419</v>
       </c>
-      <c r="M5" s="2">
+      <c r="W5" s="2">
         <v>13603903</v>
       </c>
-      <c r="N5" s="2">
+      <c r="X5" s="2">
         <v>14068932</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Y5" s="2">
         <v>14536143</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Z5" s="2">
         <v>15004522</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="AA5" s="2">
         <v>15476277</v>
       </c>
-      <c r="R5" s="2">
+      <c r="AB5" s="2">
         <v>15956046</v>
       </c>
-      <c r="S5" s="2">
+      <c r="AC5" s="2">
         <v>16450111</v>
       </c>
-      <c r="T5" s="2">
+      <c r="AD5" s="2">
         <v>16964748</v>
       </c>
-      <c r="U5" s="2">
+      <c r="AE5" s="2">
         <v>17501268</v>
       </c>
-      <c r="V5" s="2">
+      <c r="AF5" s="2">
         <v>17973700</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AG5" s="2">
         <v>18408960</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AH5" s="2">
         <v>18864255</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AI5" s="2">
         <v>19341002</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AJ5" s="2">
         <v>19838290</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AK5" s="2">
         <v>20356015</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AL5" s="2">
         <v>20896866</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AM5" s="2">
         <v>21464221</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AN5" s="2">
         <v>22059066</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AO5" s="2">
         <v>22683650</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AP5" s="2">
         <v>23283869</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AQ5" s="2">
         <v>23861169</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AR5" s="2">
         <v>24425027</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AS5" s="2">
         <v>24961683</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AT5" s="2">
         <v>25466223</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AU5" s="2">
         <v>25942556</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AV5" s="2">
         <v>26396916</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AW5" s="2">
         <v>26839423</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AX5" s="2">
         <v>27278677</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AY5" s="2">
         <v>27714248</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AZ5" s="2">
         <v>28218743</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="BA5" s="2">
         <v>28773125</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="BB5" s="2">
         <v>29337899</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="BC5" s="2">
         <v>29917666</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="BD5" s="2">
         <v>30515758</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="BE5" s="2">
         <v>31133176</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="BF5" s="2">
         <v>31764147</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="BG5" s="2">
         <v>32399894</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="BH5" s="2">
         <v>33035334</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="BI5" s="2">
         <v>33665447</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="BJ5" s="2">
         <v>34263058</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BK5" s="2">
         <v>34857122</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BL5" s="2">
         <v>35492121</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BM5" s="2">
         <v>36182251</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BN5" s="2">
         <v>36935951</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BO5" s="2">
         <v>37712281</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BP5" s="2">
         <v>38521102</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BQ5" s="2">
         <v>39331585</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BR5" s="2">
         <v>40122991</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BS5" s="2">
         <v>40889687</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BT5" s="2">
         <v>41660073</v>
       </c>
+      <c r="BU5" s="2">
+        <v>42455900.799999997</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>43239505.200000003</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>44023109.600000001</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>44806714</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1476,181 +1709,223 @@
         <v>17</v>
       </c>
       <c r="E6" s="2">
+        <v>46633186.600000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>47172447.200000003</v>
+      </c>
+      <c r="G6" s="2">
+        <v>47711707.799999997</v>
+      </c>
+      <c r="H6" s="2">
+        <v>48250968.399999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>48790229</v>
+      </c>
+      <c r="J6" s="2">
+        <v>49329489.600000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>49868750.200000003</v>
+      </c>
+      <c r="L6" s="2">
+        <v>50408010.799999997</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50947271.399999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>51486532</v>
+      </c>
+      <c r="O6" s="2">
         <v>51978188</v>
       </c>
-      <c r="F6" s="2">
+      <c r="P6" s="2">
         <v>52609561</v>
       </c>
-      <c r="G6" s="2">
+      <c r="Q6" s="2">
         <v>53122383</v>
       </c>
-      <c r="H6" s="2">
+      <c r="R6" s="2">
         <v>53664331</v>
       </c>
-      <c r="I6" s="2">
+      <c r="S6" s="2">
         <v>54147106</v>
       </c>
-      <c r="J6" s="2">
+      <c r="T6" s="2">
         <v>54659677</v>
       </c>
-      <c r="K6" s="2">
+      <c r="U6" s="2">
         <v>55166778</v>
       </c>
-      <c r="L6" s="2">
+      <c r="V6" s="2">
         <v>55468832</v>
       </c>
-      <c r="M6" s="2">
+      <c r="W6" s="2">
         <v>55765529</v>
       </c>
-      <c r="N6" s="2">
+      <c r="X6" s="2">
         <v>56259360</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Y6" s="2">
         <v>56496072</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Z6" s="2">
         <v>56645245</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="AA6" s="2">
         <v>56961784</v>
       </c>
-      <c r="R6" s="2">
+      <c r="AB6" s="2">
         <v>57186457</v>
       </c>
-      <c r="S6" s="2">
+      <c r="AC6" s="2">
         <v>57253758</v>
       </c>
-      <c r="T6" s="2">
+      <c r="AD6" s="2">
         <v>57085531</v>
       </c>
-      <c r="U6" s="2">
+      <c r="AE6" s="2">
         <v>56885943</v>
       </c>
-      <c r="V6" s="2">
+      <c r="AF6" s="2">
         <v>56801863</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AG6" s="2">
         <v>56796181</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AH6" s="2">
         <v>56865826</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AI6" s="2">
         <v>57028530</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AJ6" s="2">
         <v>57229147</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AK6" s="2">
         <v>57267174</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AL6" s="2">
         <v>57114118</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AM6" s="2">
         <v>56792461</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AN6" s="2">
         <v>56485448</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AO6" s="2">
         <v>56438249</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AP6" s="2">
         <v>56695484</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AQ6" s="2">
         <v>57044790</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AR6" s="2">
         <v>57469536</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AS6" s="2">
         <v>58079842</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AT6" s="2">
         <v>58625381</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AU6" s="2">
         <v>59146205</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AV6" s="2">
         <v>59647492</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AW6" s="2">
         <v>60028206</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AX6" s="2">
         <v>60378049</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AY6" s="2">
         <v>60725922</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AZ6" s="2">
         <v>60986289</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="BA6" s="2">
         <v>61167004</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="BB6" s="2">
         <v>61376500</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="BC6" s="2">
         <v>61629857</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="BD6" s="2">
         <v>61902439</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="BE6" s="2">
         <v>62174878</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="BF6" s="2">
         <v>62376854</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="BG6" s="2">
         <v>62529997</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BH6" s="2">
         <v>62660267</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="BI6" s="2">
         <v>62753557</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="BJ6" s="2">
         <v>62833410</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BK6" s="2">
         <v>62875807</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BL6" s="2">
         <v>62877220</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BM6" s="2">
         <v>62940432</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BN6" s="2">
         <v>61940177</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BO6" s="2">
         <v>62064608</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BP6" s="2">
         <v>62242278</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BQ6" s="2">
         <v>62510392</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BR6" s="2">
         <v>63062064</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BS6" s="2">
         <v>63592936</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BT6" s="2">
         <v>63890984</v>
       </c>
+      <c r="BU6" s="2">
+        <v>64373717.600000001</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>64811713.200000003</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>65249708.799999997</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>65687704.399999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1664,181 +1939,223 @@
         <v>19</v>
       </c>
       <c r="E7" s="2">
+        <v>54947491.399999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>57485381.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>60023271.600000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>62561161.700000003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>65099051.799999997</v>
+      </c>
+      <c r="J7" s="2">
+        <v>67636941.900000006</v>
+      </c>
+      <c r="K7" s="2">
+        <v>70174832</v>
+      </c>
+      <c r="L7" s="2">
+        <v>72712722.099999994</v>
+      </c>
+      <c r="M7" s="2">
+        <v>75250612.200000003</v>
+      </c>
+      <c r="N7" s="2">
+        <v>77788502.299999997</v>
+      </c>
+      <c r="O7" s="2">
         <v>80564904</v>
       </c>
-      <c r="F7" s="2">
+      <c r="P7" s="2">
         <v>82675812</v>
       </c>
-      <c r="G7" s="2">
+      <c r="Q7" s="2">
         <v>85233375</v>
       </c>
-      <c r="H7" s="2">
+      <c r="R7" s="2">
         <v>87889023</v>
       </c>
-      <c r="I7" s="2">
+      <c r="S7" s="2">
         <v>90647749</v>
       </c>
-      <c r="J7" s="2">
+      <c r="T7" s="2">
         <v>93493389</v>
       </c>
-      <c r="K7" s="2">
+      <c r="U7" s="2">
         <v>96433890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="V7" s="2">
         <v>99476360</v>
       </c>
-      <c r="M7" s="2">
+      <c r="W7" s="2">
         <v>102633471</v>
       </c>
-      <c r="N7" s="2">
+      <c r="X7" s="2">
         <v>105929223</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Y7" s="2">
         <v>109387114</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Z7" s="2">
         <v>113194002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="AA7" s="2">
         <v>117742214</v>
       </c>
-      <c r="R7" s="2">
+      <c r="AB7" s="2">
         <v>122484460</v>
       </c>
-      <c r="S7" s="2">
+      <c r="AC7" s="2">
         <v>127425919</v>
       </c>
-      <c r="T7" s="2">
+      <c r="AD7" s="2">
         <v>132536083</v>
       </c>
-      <c r="U7" s="2">
+      <c r="AE7" s="2">
         <v>137816239</v>
       </c>
-      <c r="V7" s="2">
+      <c r="AF7" s="2">
         <v>143275833</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AG7" s="2">
         <v>148932756</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AH7" s="2">
         <v>154813017</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AI7" s="2">
         <v>160943057</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AJ7" s="2">
         <v>166990850</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AK7" s="2">
         <v>172591889</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AL7" s="2">
         <v>178363968</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AM7" s="2">
         <v>184282446</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AN7" s="2">
         <v>190320201</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AO7" s="2">
         <v>196478756</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AP7" s="2">
         <v>202752462</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AQ7" s="2">
         <v>209148059</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AR7" s="2">
         <v>215666932</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AS7" s="2">
         <v>222293000</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AT7" s="2">
         <v>228922786</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AU7" s="2">
         <v>235420524</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AV7" s="2">
         <v>242019983</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AW7" s="2">
         <v>248732500</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AX7" s="2">
         <v>255555657</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AY7" s="2">
         <v>262509794</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AZ7" s="2">
         <v>269578709</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="BA7" s="2">
         <v>276751329</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="BB7" s="2">
         <v>284012050</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="BC7" s="2">
         <v>291347596</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="BD7" s="2">
         <v>299135188</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="BE7" s="2">
         <v>307805121</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="BF7" s="2">
         <v>316585717</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="BG7" s="2">
         <v>325487024</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="BH7" s="2">
         <v>334483094</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="BI7" s="2">
         <v>343585192</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="BJ7" s="2">
         <v>352795471</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BK7" s="2">
         <v>362089053</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BL7" s="2">
         <v>371408805</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BM7" s="2">
         <v>380742328</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BN7" s="2">
         <v>390085540</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BO7" s="2">
         <v>399558252</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BP7" s="2">
         <v>409178263</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BQ7" s="2">
         <v>419003394</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BR7" s="2">
         <v>429068623</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BS7" s="2">
         <v>439386539</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BT7" s="2">
         <v>449964523</v>
       </c>
+      <c r="BU7" s="2">
+        <v>459906967.89999998</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>470102534.39999998</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>480298100.89999998</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>490493667.39999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1852,181 +2169,223 @@
         <v>21</v>
       </c>
       <c r="E8" s="2">
+        <v>6855201.7999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7447612.2000000002</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8040022.5999999996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8632433</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9224843.4000000004</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9817253.8000000007</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10409664.199999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11002074.6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>11594485</v>
+      </c>
+      <c r="N8" s="2">
+        <v>12186895.4</v>
+      </c>
+      <c r="O8" s="2">
         <v>12805416</v>
       </c>
-      <c r="F8" s="2">
+      <c r="P8" s="2">
         <v>13359388</v>
       </c>
-      <c r="G8" s="2">
+      <c r="Q8" s="2">
         <v>13937384</v>
       </c>
-      <c r="H8" s="2">
+      <c r="R8" s="2">
         <v>14542566</v>
       </c>
-      <c r="I8" s="2">
+      <c r="S8" s="2">
         <v>15175879</v>
       </c>
-      <c r="J8" s="2">
+      <c r="T8" s="2">
         <v>15837771</v>
       </c>
-      <c r="K8" s="2">
+      <c r="U8" s="2">
         <v>16530973</v>
       </c>
-      <c r="L8" s="2">
+      <c r="V8" s="2">
         <v>17255493</v>
       </c>
-      <c r="M8" s="2">
+      <c r="W8" s="2">
         <v>18008881</v>
       </c>
-      <c r="N8" s="2">
+      <c r="X8" s="2">
         <v>18792477</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Y8" s="2">
         <v>19603445</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Z8" s="2">
         <v>20445316</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="AA8" s="2">
         <v>21523171</v>
       </c>
-      <c r="R8" s="2">
+      <c r="AB8" s="2">
         <v>22711492</v>
       </c>
-      <c r="S8" s="2">
+      <c r="AC8" s="2">
         <v>23954541</v>
       </c>
-      <c r="T8" s="2">
+      <c r="AD8" s="2">
         <v>25251977</v>
       </c>
-      <c r="U8" s="2">
+      <c r="AE8" s="2">
         <v>26605142</v>
       </c>
-      <c r="V8" s="2">
+      <c r="AF8" s="2">
         <v>28010966</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AG8" s="2">
         <v>29477937</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AH8" s="2">
         <v>31006079</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AI8" s="2">
         <v>32601270</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AJ8" s="2">
         <v>34445822</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AK8" s="2">
         <v>36472749</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AL8" s="2">
         <v>38586526</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AM8" s="2">
         <v>40783091</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AN8" s="2">
         <v>43050032</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AO8" s="2">
         <v>45389398</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AP8" s="2">
         <v>47800744</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AQ8" s="2">
         <v>50288263</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AR8" s="2">
         <v>52847933</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AS8" s="2">
         <v>55490637</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AT8" s="2">
         <v>58362649</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AU8" s="2">
         <v>61405143</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AV8" s="2">
         <v>64532549</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AW8" s="2">
         <v>67750902</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AX8" s="2">
         <v>71054514</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AY8" s="2">
         <v>74438287</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AZ8" s="2">
         <v>77897532</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="BA8" s="2">
         <v>81448955</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="BB8" s="2">
         <v>85097234</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="BC8" s="2">
         <v>88851211</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="BD8" s="2">
         <v>91772317</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="BE8" s="2">
         <v>94763911</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="BF8" s="2">
         <v>97825035</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="BG8" s="2">
         <v>100959778</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="BH8" s="2">
         <v>104156362</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="BI8" s="2">
         <v>107421779</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="BJ8" s="2">
         <v>110751388</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BK8" s="2">
         <v>114147586</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BL8" s="2">
         <v>117597550</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BM8" s="2">
         <v>121053491</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BN8" s="2">
         <v>124315715</v>
       </c>
-      <c r="BE8" s="2">
+      <c r="BO8" s="2">
         <v>127617366</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BP8" s="2">
         <v>130943362</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="BQ8" s="2">
         <v>134288263</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BR8" s="2">
         <v>137633967</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BS8" s="2">
         <v>140973624</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BT8" s="2">
         <v>144295048</v>
       </c>
+      <c r="BU8" s="2">
+        <v>147643472.69999999</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>150982346</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>154321219.30000001</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>157660092.59999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2040,181 +2399,223 @@
         <v>23</v>
       </c>
       <c r="E9" s="2">
+        <v>41914765.600000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43611792.100000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45308818.600000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>47005845.100000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>48702871.600000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50399898.100000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>52096924.600000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>53793951.100000001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55490977.600000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>57188004.100000001</v>
+      </c>
+      <c r="O9" s="2">
         <v>58526962</v>
       </c>
-      <c r="F9" s="2">
+      <c r="P9" s="2">
         <v>60965749</v>
       </c>
-      <c r="G9" s="2">
+      <c r="Q9" s="2">
         <v>62428798</v>
       </c>
-      <c r="H9" s="2">
+      <c r="R9" s="2">
         <v>63957880</v>
       </c>
-      <c r="I9" s="2">
+      <c r="S9" s="2">
         <v>65516029</v>
       </c>
-      <c r="J9" s="2">
+      <c r="T9" s="2">
         <v>67107937</v>
       </c>
-      <c r="K9" s="2">
+      <c r="U9" s="2">
         <v>68559722</v>
       </c>
-      <c r="L9" s="2">
+      <c r="V9" s="2">
         <v>70019991</v>
       </c>
-      <c r="M9" s="2">
+      <c r="W9" s="2">
         <v>71062053</v>
       </c>
-      <c r="N9" s="2">
+      <c r="X9" s="2">
         <v>73357355</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Y9" s="2">
         <v>75000056</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Z9" s="2">
         <v>76805782</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="AA9" s="2">
         <v>78731730</v>
       </c>
-      <c r="R9" s="2">
+      <c r="AB9" s="2">
         <v>80216234</v>
       </c>
-      <c r="S9" s="2">
+      <c r="AC9" s="2">
         <v>82593959</v>
       </c>
-      <c r="T9" s="2">
+      <c r="AD9" s="2">
         <v>84756490</v>
       </c>
-      <c r="U9" s="2">
+      <c r="AE9" s="2">
         <v>85642808</v>
       </c>
-      <c r="V9" s="2">
+      <c r="AF9" s="2">
         <v>86538157</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AG9" s="2">
         <v>87391419</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AH9" s="2">
         <v>88197927</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AI9" s="2">
         <v>88958689</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AJ9" s="2">
         <v>89733659</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AK9" s="2">
         <v>90474900</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AL9" s="2">
         <v>91224787</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AM9" s="2">
         <v>91937389</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AN9" s="2">
         <v>92632808</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AO9" s="2">
         <v>93348378</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AP9" s="2">
         <v>93963675</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AQ9" s="2">
         <v>94519909</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AR9" s="2">
         <v>95061557</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AS9" s="2">
         <v>95542280</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AT9" s="2">
         <v>96005316</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AU9" s="2">
         <v>96414127</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AV9" s="2">
         <v>96821759</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AW9" s="2">
         <v>97320876</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AX9" s="2">
         <v>97862490</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AY9" s="2">
         <v>98272808</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AZ9" s="2">
         <v>98667335</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="BA9" s="2">
         <v>99095072</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="BB9" s="2">
         <v>99434460</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="BC9" s="2">
         <v>99760751</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="BD9" s="2">
         <v>101706485</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="BE9" s="2">
         <v>104055019</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="BF9" s="2">
         <v>106256267</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="BG9" s="2">
         <v>108136910</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BH9" s="2">
         <v>109856670</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="BI9" s="2">
         <v>111383848</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="BJ9" s="2">
         <v>112827761</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BK9" s="2">
         <v>114107975</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BL9" s="2">
         <v>115228215</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="BM9" s="2">
         <v>116302928</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BN9" s="2">
         <v>116416235</v>
       </c>
-      <c r="BE9" s="2">
+      <c r="BO9" s="2">
         <v>116331281</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BP9" s="2">
         <v>116262976</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="BQ9" s="2">
         <v>116208079</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="BR9" s="2">
         <v>116182717</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BS9" s="2">
         <v>116145370</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BT9" s="2">
         <v>116053379</v>
       </c>
+      <c r="BU9" s="2">
+        <v>116025933.3</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>115977743</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>115929552.7</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>115881362.40000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2228,181 +2629,223 @@
         <v>25</v>
       </c>
       <c r="E10" s="2">
+        <v>45909052.399999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>47757411.799999997</v>
+      </c>
+      <c r="G10" s="2">
+        <v>49605771.200000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>51454130.600000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>53302490</v>
+      </c>
+      <c r="J10" s="2">
+        <v>55150849.399999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>56999208.799999997</v>
+      </c>
+      <c r="L10" s="2">
+        <v>58847568.200000003</v>
+      </c>
+      <c r="M10" s="2">
+        <v>60695927.600000001</v>
+      </c>
+      <c r="N10" s="2">
+        <v>62544287</v>
+      </c>
+      <c r="O10" s="2">
         <v>64421857</v>
       </c>
-      <c r="F10" s="2">
+      <c r="P10" s="2">
         <v>66226377</v>
       </c>
-      <c r="G10" s="2">
+      <c r="Q10" s="2">
         <v>68060071</v>
       </c>
-      <c r="H10" s="2">
+      <c r="R10" s="2">
         <v>69923357</v>
       </c>
-      <c r="I10" s="2">
+      <c r="S10" s="2">
         <v>71815164</v>
       </c>
-      <c r="J10" s="2">
+      <c r="T10" s="2">
         <v>73731369</v>
       </c>
-      <c r="K10" s="2">
+      <c r="U10" s="2">
         <v>75267305</v>
       </c>
-      <c r="L10" s="2">
+      <c r="V10" s="2">
         <v>76812479</v>
       </c>
-      <c r="M10" s="2">
+      <c r="W10" s="2">
         <v>78366306</v>
       </c>
-      <c r="N10" s="2">
+      <c r="X10" s="2">
         <v>79922296</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Y10" s="2">
         <v>81464683</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Z10" s="2">
         <v>82992261</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="AA10" s="2">
         <v>84524649</v>
       </c>
-      <c r="R10" s="2">
+      <c r="AB10" s="2">
         <v>86061054</v>
       </c>
-      <c r="S10" s="2">
+      <c r="AC10" s="2">
         <v>87600777</v>
       </c>
-      <c r="T10" s="2">
+      <c r="AD10" s="2">
         <v>89145034</v>
       </c>
-      <c r="U10" s="2">
+      <c r="AE10" s="2">
         <v>90810675</v>
       </c>
-      <c r="V10" s="2">
+      <c r="AF10" s="2">
         <v>92479950</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AG10" s="2">
         <v>94157479</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AH10" s="2">
         <v>95659612</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AI10" s="2">
         <v>96960865</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AJ10" s="2">
         <v>98228786</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AK10" s="2">
         <v>99464693</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AL10" s="2">
         <v>100677781</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AM10" s="2">
         <v>102058393</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AN10" s="2">
         <v>103466989</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AO10" s="2">
         <v>104825013</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AP10" s="2">
         <v>106169956</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AQ10" s="2">
         <v>107471421</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AR10" s="2">
         <v>108424260</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AS10" s="2">
         <v>108837430</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AT10" s="2">
         <v>109073667</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AU10" s="2">
         <v>109115423</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AV10" s="2">
         <v>108985461</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AW10" s="2">
         <v>108843023</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AX10" s="2">
         <v>108866238</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AY10" s="2">
         <v>108700578</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AZ10" s="2">
         <v>108515107</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="BA10" s="2">
         <v>108329743</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="BB10" s="2">
         <v>107987645</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="BC10" s="2">
         <v>107528575</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="BD10" s="2">
         <v>107067618</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="BE10" s="2">
         <v>106568907</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="BF10" s="2">
         <v>106132766</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="BG10" s="2">
         <v>105771150</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="BH10" s="2">
         <v>105433013</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="BI10" s="2">
         <v>105152847</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="BJ10" s="2">
         <v>105037426</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BK10" s="2">
         <v>105055515</v>
       </c>
-      <c r="BB10" s="2">
+      <c r="BL10" s="2">
         <v>105149982</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BM10" s="2">
         <v>105261473</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BN10" s="2">
         <v>105407907</v>
       </c>
-      <c r="BE10" s="2">
+      <c r="BO10" s="2">
         <v>105669949</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BP10" s="2">
         <v>105998510</v>
       </c>
-      <c r="BG10" s="2">
+      <c r="BQ10" s="2">
         <v>106354643</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="BR10" s="2">
         <v>106703732</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BS10" s="2">
         <v>107050095</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BT10" s="2">
         <v>107348258</v>
       </c>
+      <c r="BU10" s="2">
+        <v>107709532</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>108049026.8</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>108388521.59999999</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>108728016.40000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2416,181 +2859,223 @@
         <v>27</v>
       </c>
       <c r="E11" s="2">
+        <v>38621812.799999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>38872425.799999997</v>
+      </c>
+      <c r="G11" s="2">
+        <v>39123038.799999997</v>
+      </c>
+      <c r="H11" s="2">
+        <v>39373651.799999997</v>
+      </c>
+      <c r="I11" s="2">
+        <v>39624264.799999997</v>
+      </c>
+      <c r="J11" s="2">
+        <v>39874877.799999997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>40125490.799999997</v>
+      </c>
+      <c r="L11" s="2">
+        <v>40376103.799999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>40626716.799999997</v>
+      </c>
+      <c r="N11" s="2">
+        <v>40877329.799999997</v>
+      </c>
+      <c r="O11" s="2">
         <v>41104656</v>
       </c>
-      <c r="F11" s="2">
+      <c r="P11" s="2">
         <v>41381472</v>
       </c>
-      <c r="G11" s="2">
+      <c r="Q11" s="2">
         <v>41661202</v>
       </c>
-      <c r="H11" s="2">
+      <c r="R11" s="2">
         <v>41900114</v>
       </c>
-      <c r="I11" s="2">
+      <c r="S11" s="2">
         <v>42098400</v>
       </c>
-      <c r="J11" s="2">
+      <c r="T11" s="2">
         <v>42294196</v>
       </c>
-      <c r="K11" s="2">
+      <c r="U11" s="2">
         <v>42452048</v>
       </c>
-      <c r="L11" s="2">
+      <c r="V11" s="2">
         <v>42603817</v>
       </c>
-      <c r="M11" s="2">
+      <c r="W11" s="2">
         <v>42733856</v>
       </c>
-      <c r="N11" s="2">
+      <c r="X11" s="2">
         <v>42833742</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Y11" s="2">
         <v>42925829</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Z11" s="2">
         <v>43056861</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="AA11" s="2">
         <v>43295638</v>
       </c>
-      <c r="R11" s="2">
+      <c r="AB11" s="2">
         <v>43470962</v>
       </c>
-      <c r="S11" s="2">
+      <c r="AC11" s="2">
         <v>43590038</v>
       </c>
-      <c r="T11" s="2">
+      <c r="AD11" s="2">
         <v>43677888</v>
       </c>
-      <c r="U11" s="2">
+      <c r="AE11" s="2">
         <v>43757644</v>
       </c>
-      <c r="V11" s="2">
+      <c r="AF11" s="2">
         <v>43833733</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AG11" s="2">
         <v>43925435</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AH11" s="2">
         <v>44054299</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AI11" s="2">
         <v>44195960</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AJ11" s="2">
         <v>44271630</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AK11" s="2">
         <v>44228171</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AL11" s="2">
         <v>44215089</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AM11" s="2">
         <v>44257473</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AN11" s="2">
         <v>44329755</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AO11" s="2">
         <v>44404206</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AP11" s="2">
         <v>44470325</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AQ11" s="2">
         <v>44540723</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AR11" s="2">
         <v>44628280</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AS11" s="2">
         <v>44733264</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AT11" s="2">
         <v>44855736</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AU11" s="2">
         <v>45011752</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AV11" s="2">
         <v>45154426</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AW11" s="2">
         <v>45304828</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AX11" s="2">
         <v>45459651</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AY11" s="2">
         <v>45610451</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AZ11" s="2">
         <v>45762480</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="BA11" s="2">
         <v>45931122</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="BB11" s="2">
         <v>46119137</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="BC11" s="2">
         <v>46319551</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="BD11" s="2">
         <v>46557334</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="BE11" s="2">
         <v>46930583</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="BF11" s="2">
         <v>47323791</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="BG11" s="2">
         <v>47767769</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BH11" s="2">
         <v>48269624</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="BI11" s="2">
         <v>48798541</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="BJ11" s="2">
         <v>49351705</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BK11" s="2">
         <v>49913475</v>
       </c>
-      <c r="BB11" s="2">
+      <c r="BL11" s="2">
         <v>50463084</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BM11" s="2">
         <v>51030310</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BN11" s="2">
         <v>51600299</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BO11" s="2">
         <v>52130415</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BP11" s="2">
         <v>52650556</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BQ11" s="2">
         <v>53218629</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="BR11" s="2">
         <v>53813373</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BS11" s="2">
         <v>54369540</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="BT11" s="2">
         <v>54892898</v>
       </c>
+      <c r="BU11" s="2">
+        <v>55479677.700000003</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>56043237.200000003</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>56606796.700000003</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>57170356.200000003</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2604,178 +3089,220 @@
         <v>29</v>
       </c>
       <c r="E12" s="2">
+        <v>99696296.200000003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>102380917.7</v>
+      </c>
+      <c r="G12" s="2">
+        <v>105065539.2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>107750160.7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>110434782.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>113119403.7</v>
+      </c>
+      <c r="K12" s="2">
+        <v>115804025.2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>118488646.7</v>
+      </c>
+      <c r="M12" s="2">
+        <v>121173268.2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>123857889.7</v>
+      </c>
+      <c r="O12" s="2">
         <v>126462473</v>
       </c>
-      <c r="F12" s="2">
+      <c r="P12" s="2">
         <v>129276215</v>
       </c>
-      <c r="G12" s="2">
+      <c r="Q12" s="2">
         <v>131988693</v>
       </c>
-      <c r="H12" s="2">
+      <c r="R12" s="2">
         <v>134615404</v>
       </c>
-      <c r="I12" s="2">
+      <c r="S12" s="2">
         <v>137215986</v>
       </c>
-      <c r="J12" s="2">
+      <c r="T12" s="2">
         <v>139663053</v>
       </c>
-      <c r="K12" s="2">
+      <c r="U12" s="2">
         <v>142008703</v>
       </c>
-      <c r="L12" s="2">
+      <c r="V12" s="2">
         <v>144288757</v>
       </c>
-      <c r="M12" s="2">
+      <c r="W12" s="2">
         <v>146463196</v>
       </c>
-      <c r="N12" s="2">
+      <c r="X12" s="2">
         <v>148629124</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Y12" s="2">
         <v>150922373</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Z12" s="2">
         <v>152865492</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="AA12" s="2">
         <v>154531732</v>
       </c>
-      <c r="R12" s="2">
+      <c r="AB12" s="2">
         <v>156034954</v>
       </c>
-      <c r="S12" s="2">
+      <c r="AC12" s="2">
         <v>157488501</v>
       </c>
-      <c r="T12" s="2">
+      <c r="AD12" s="2">
         <v>159070594</v>
       </c>
-      <c r="U12" s="2">
+      <c r="AE12" s="2">
         <v>160611122</v>
       </c>
-      <c r="V12" s="2">
+      <c r="AF12" s="2">
         <v>162256678</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AG12" s="2">
         <v>164005080</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AH12" s="2">
         <v>165847531</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AI12" s="2">
         <v>167551171</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AJ12" s="2">
         <v>169552427</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AK12" s="2">
         <v>171528659</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AL12" s="2">
         <v>173459636</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AM12" s="2">
         <v>175321738</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AN12" s="2">
         <v>177239105</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AO12" s="2">
         <v>179244877</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AP12" s="2">
         <v>181215212</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AQ12" s="2">
         <v>183232441</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AR12" s="2">
         <v>185333919</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AS12" s="2">
         <v>187966119</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AT12" s="2">
         <v>191509147</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AU12" s="2">
         <v>195199459</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AV12" s="2">
         <v>198806845</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AW12" s="2">
         <v>202278113</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AX12" s="2">
         <v>205718394</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AY12" s="2">
         <v>209146726</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AZ12" s="2">
         <v>212694273</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="BA12" s="2">
         <v>216206090</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="BB12" s="2">
         <v>219721677</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="BC12" s="2">
         <v>223069137</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="BD12" s="2">
         <v>225792302</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="BE12" s="2">
         <v>228400290</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="BF12" s="2">
         <v>230876596</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="BG12" s="2">
         <v>233532722</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="BH12" s="2">
         <v>236200507</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="BI12" s="2">
         <v>238999326</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="BJ12" s="2">
         <v>241795278</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BK12" s="2">
         <v>244607104</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BL12" s="2">
         <v>247276259</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BM12" s="2">
         <v>249858829</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BN12" s="2">
         <v>252257346</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BO12" s="2">
         <v>254708202</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BP12" s="2">
         <v>257095490</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BQ12" s="2">
         <v>259623192</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BR12" s="2">
         <v>262196447</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BS12" s="2">
         <v>264746567</v>
       </c>
-      <c r="BJ12" s="2">
+      <c r="BT12" s="2">
         <v>267278643</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>269834972.10000002</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>272383940.19999999</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>274932908.30000001</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>277481876.39999998</v>
       </c>
     </row>
   </sheetData>
